--- a/SendMail/SendMail/テスト仕様書_〇〇〇〇.xlsx
+++ b/SendMail/SendMail/テスト仕様書_〇〇〇〇.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20378"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20379"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\infosys\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\infosys\source\repos\TakadaShogo1105\OOP2021\SendMail\SendMail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8551585-7D5D-409B-BCE9-F41F52A551FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76C79C6-5340-475D-AF6B-FB51D7B6DA90}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11400" tabRatio="476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="63">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -671,6 +671,18 @@
   </si>
   <si>
     <t>OK</t>
+  </si>
+  <si>
+    <t>高田将吾</t>
+    <rPh sb="0" eb="2">
+      <t>タカダ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ゴ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1024,7 +1036,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1091,6 +1103,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1154,7 +1169,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1455,7 +1473,7 @@
   <dimension ref="A1:AA226"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="74.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1471,28 +1489,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
     </row>
     <row r="2" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="24" t="s">
+      <c r="B2" s="36"/>
+      <c r="C2" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
       <c r="F2" s="6" t="s">
         <v>3</v>
       </c>
@@ -1508,15 +1526,15 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="24" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
       <c r="F3" s="7" t="s">
         <v>4</v>
       </c>
@@ -1531,23 +1549,23 @@
     </row>
     <row r="4" spans="1:27" ht="7.5" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="5" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="26" t="s">
+      <c r="B5" s="39"/>
+      <c r="C5" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
       <c r="F5" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="27"/>
-      <c r="I5" s="33"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="34"/>
     </row>
     <row r="6" spans="1:27" ht="7.5" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="7" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.4">
@@ -1557,21 +1575,21 @@
       <c r="B7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="31" t="s">
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="32" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1582,9 +1600,9 @@
       <c r="B8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="42"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="43"/>
       <c r="F8" s="10" t="s">
         <v>13</v>
       </c>
@@ -1594,7 +1612,7 @@
       <c r="H8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="32"/>
+      <c r="I8" s="33"/>
     </row>
     <row r="9" spans="1:27" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
@@ -1612,11 +1630,15 @@
       <c r="E9" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="43" t="s">
+      <c r="F9" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="20"/>
+      <c r="G9" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="45">
+        <v>44517</v>
+      </c>
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:27" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -1631,9 +1653,15 @@
       <c r="E10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="20"/>
+      <c r="F10" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="45">
+        <v>44517</v>
+      </c>
       <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:27" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -1648,9 +1676,15 @@
       <c r="E11" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="20"/>
+      <c r="F11" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="45">
+        <v>44517</v>
+      </c>
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:27" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -1665,9 +1699,15 @@
       <c r="E12" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="20"/>
+      <c r="F12" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="45">
+        <v>44517</v>
+      </c>
       <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:27" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -1724,9 +1764,15 @@
       <c r="E15" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="20"/>
+      <c r="F15" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="45">
+        <v>44517</v>
+      </c>
       <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:27" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -1762,9 +1808,15 @@
       <c r="E17" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="20"/>
+      <c r="F17" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" s="45">
+        <v>44517</v>
+      </c>
       <c r="I17" s="21" t="s">
         <v>52</v>
       </c>
@@ -1781,9 +1833,15 @@
       <c r="E18" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="20"/>
+      <c r="F18" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" s="45">
+        <v>44517</v>
+      </c>
       <c r="I18" s="21" t="s">
         <v>46</v>
       </c>
@@ -1804,9 +1862,15 @@
       <c r="E19" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="20"/>
+      <c r="F19" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" s="45">
+        <v>44517</v>
+      </c>
       <c r="I19" s="5" t="s">
         <v>49</v>
       </c>
@@ -1840,9 +1904,15 @@
       <c r="E21" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="F21" s="17"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="4"/>
+      <c r="F21" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21" s="45">
+        <v>44517</v>
+      </c>
       <c r="I21" s="5"/>
     </row>
     <row r="22" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -1857,9 +1927,15 @@
       <c r="E22" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="4"/>
+      <c r="F22" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="H22" s="45">
+        <v>44517</v>
+      </c>
       <c r="I22" s="5" t="s">
         <v>58</v>
       </c>

--- a/SendMail/SendMail/テスト仕様書_〇〇〇〇.xlsx
+++ b/SendMail/SendMail/テスト仕様書_〇〇〇〇.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20379"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20380"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\infosys\source\repos\TakadaShogo1105\OOP2021\SendMail\SendMail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76C79C6-5340-475D-AF6B-FB51D7B6DA90}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974B10A4-CA14-45D6-9CF9-E97EC6DD14DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11400" tabRatio="476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="63">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -1106,6 +1106,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1167,12 +1173,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1473,7 +1473,7 @@
   <dimension ref="A1:AA226"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="74.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1489,28 +1489,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="25" t="s">
+      <c r="B2" s="38"/>
+      <c r="C2" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
       <c r="F2" s="6" t="s">
         <v>3</v>
       </c>
@@ -1526,15 +1526,15 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="25" t="s">
+      <c r="B3" s="38"/>
+      <c r="C3" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
       <c r="F3" s="7" t="s">
         <v>4</v>
       </c>
@@ -1549,23 +1549,23 @@
     </row>
     <row r="4" spans="1:27" ht="7.5" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="5" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="27" t="s">
+      <c r="B5" s="41"/>
+      <c r="C5" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
       <c r="F5" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="34"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="36"/>
     </row>
     <row r="6" spans="1:27" ht="7.5" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="7" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.4">
@@ -1575,21 +1575,21 @@
       <c r="B7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="32" t="s">
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="34" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1600,9 +1600,9 @@
       <c r="B8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="43"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="45"/>
       <c r="F8" s="10" t="s">
         <v>13</v>
       </c>
@@ -1612,7 +1612,7 @@
       <c r="H8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="33"/>
+      <c r="I8" s="35"/>
     </row>
     <row r="9" spans="1:27" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
@@ -1633,10 +1633,10 @@
       <c r="F9" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="44" t="s">
+      <c r="G9" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="45">
+      <c r="H9" s="24">
         <v>44517</v>
       </c>
       <c r="I9" s="5"/>
@@ -1656,10 +1656,10 @@
       <c r="F10" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="44" t="s">
+      <c r="G10" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="45">
+      <c r="H10" s="24">
         <v>44517</v>
       </c>
       <c r="I10" s="5"/>
@@ -1679,10 +1679,10 @@
       <c r="F11" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="44" t="s">
+      <c r="G11" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="45">
+      <c r="H11" s="24">
         <v>44517</v>
       </c>
       <c r="I11" s="5"/>
@@ -1702,10 +1702,10 @@
       <c r="F12" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="G12" s="44" t="s">
+      <c r="G12" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="45">
+      <c r="H12" s="24">
         <v>44517</v>
       </c>
       <c r="I12" s="5"/>
@@ -1726,9 +1726,15 @@
       <c r="E13" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="20"/>
+      <c r="F13" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="24">
+        <v>44517</v>
+      </c>
       <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:27" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -1743,9 +1749,15 @@
       <c r="E14" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="4"/>
+      <c r="F14" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="24">
+        <v>44517</v>
+      </c>
       <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:27" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -1767,10 +1779,10 @@
       <c r="F15" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="44" t="s">
+      <c r="G15" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="H15" s="45">
+      <c r="H15" s="24">
         <v>44517</v>
       </c>
       <c r="I15" s="5"/>
@@ -1811,10 +1823,10 @@
       <c r="F17" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="G17" s="44" t="s">
+      <c r="G17" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="H17" s="45">
+      <c r="H17" s="24">
         <v>44517</v>
       </c>
       <c r="I17" s="21" t="s">
@@ -1836,10 +1848,10 @@
       <c r="F18" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="44" t="s">
+      <c r="G18" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="H18" s="45">
+      <c r="H18" s="24">
         <v>44517</v>
       </c>
       <c r="I18" s="21" t="s">
@@ -1865,10 +1877,10 @@
       <c r="F19" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="G19" s="44" t="s">
+      <c r="G19" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="H19" s="45">
+      <c r="H19" s="24">
         <v>44517</v>
       </c>
       <c r="I19" s="5" t="s">
@@ -1907,10 +1919,10 @@
       <c r="F21" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="G21" s="44" t="s">
+      <c r="G21" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="H21" s="45">
+      <c r="H21" s="24">
         <v>44517</v>
       </c>
       <c r="I21" s="5"/>
@@ -1930,10 +1942,10 @@
       <c r="F22" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="G22" s="44" t="s">
+      <c r="G22" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="H22" s="45">
+      <c r="H22" s="24">
         <v>44517</v>
       </c>
       <c r="I22" s="5" t="s">

--- a/SendMail/SendMail/テスト仕様書_〇〇〇〇.xlsx
+++ b/SendMail/SendMail/テスト仕様書_〇〇〇〇.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\infosys\source\repos\TakadaShogo1105\OOP2021\SendMail\SendMail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974B10A4-CA14-45D6-9CF9-E97EC6DD14DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3184D088-8E5C-4C2C-ACEC-4F60C8D44B9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11400" tabRatio="476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="63">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -1036,7 +1036,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1096,9 +1096,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1473,7 +1470,7 @@
   <dimension ref="A1:AA226"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="74.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1489,28 +1486,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
     </row>
     <row r="2" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="27" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
       <c r="F2" s="6" t="s">
         <v>3</v>
       </c>
@@ -1520,21 +1517,23 @@
       <c r="H2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="19"/>
+      <c r="I2" s="19">
+        <v>44519</v>
+      </c>
       <c r="AA2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="27" t="s">
+      <c r="B3" s="37"/>
+      <c r="C3" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
       <c r="F3" s="7" t="s">
         <v>4</v>
       </c>
@@ -1549,23 +1548,23 @@
     </row>
     <row r="4" spans="1:27" ht="7.5" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="5" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="29" t="s">
+      <c r="B5" s="40"/>
+      <c r="C5" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
       <c r="F5" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="30"/>
-      <c r="I5" s="36"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="35"/>
     </row>
     <row r="6" spans="1:27" ht="7.5" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="7" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.4">
@@ -1575,21 +1574,21 @@
       <c r="B7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="34" t="s">
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="33" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1600,9 +1599,9 @@
       <c r="B8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="45"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="44"/>
       <c r="F8" s="10" t="s">
         <v>13</v>
       </c>
@@ -1612,7 +1611,7 @@
       <c r="H8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="35"/>
+      <c r="I8" s="34"/>
     </row>
     <row r="9" spans="1:27" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
@@ -1630,13 +1629,13 @@
       <c r="E9" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="24">
+      <c r="H9" s="23">
         <v>44517</v>
       </c>
       <c r="I9" s="5"/>
@@ -1653,13 +1652,13 @@
       <c r="E10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="23">
         <v>44517</v>
       </c>
       <c r="I10" s="5"/>
@@ -1676,13 +1675,13 @@
       <c r="E11" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="24">
+      <c r="H11" s="23">
         <v>44517</v>
       </c>
       <c r="I11" s="5"/>
@@ -1699,13 +1698,13 @@
       <c r="E12" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="G12" s="23" t="s">
+      <c r="G12" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="24">
+      <c r="H12" s="23">
         <v>44517</v>
       </c>
       <c r="I12" s="5"/>
@@ -1726,13 +1725,13 @@
       <c r="E13" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="G13" s="23" t="s">
+      <c r="G13" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="24">
+      <c r="H13" s="23">
         <v>44517</v>
       </c>
       <c r="I13" s="5"/>
@@ -1749,13 +1748,13 @@
       <c r="E14" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="H14" s="24">
+      <c r="H14" s="23">
         <v>44517</v>
       </c>
       <c r="I14" s="5"/>
@@ -1776,13 +1775,13 @@
       <c r="E15" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="23" t="s">
+      <c r="G15" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="H15" s="24">
+      <c r="H15" s="23">
         <v>44517</v>
       </c>
       <c r="I15" s="5"/>
@@ -1799,10 +1798,16 @@
       <c r="E16" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="21"/>
+      <c r="F16" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="23">
+        <v>44519</v>
+      </c>
+      <c r="I16" s="20"/>
     </row>
     <row r="17" spans="1:9" ht="79.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
@@ -1820,16 +1825,16 @@
       <c r="E17" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="G17" s="23" t="s">
+      <c r="G17" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="H17" s="24">
+      <c r="H17" s="23">
         <v>44517</v>
       </c>
-      <c r="I17" s="21" t="s">
+      <c r="I17" s="20" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1845,16 +1850,16 @@
       <c r="E18" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="23" t="s">
+      <c r="G18" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="H18" s="24">
+      <c r="H18" s="23">
         <v>44517</v>
       </c>
-      <c r="I18" s="21" t="s">
+      <c r="I18" s="20" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1874,13 +1879,13 @@
       <c r="E19" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="G19" s="23" t="s">
+      <c r="G19" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="H19" s="24">
+      <c r="H19" s="23">
         <v>44517</v>
       </c>
       <c r="I19" s="5" t="s">
@@ -1899,9 +1904,15 @@
       <c r="E20" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="4"/>
+      <c r="F20" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="H20" s="23">
+        <v>44519</v>
+      </c>
       <c r="I20" s="5"/>
     </row>
     <row r="21" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -1916,13 +1927,13 @@
       <c r="E21" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="G21" s="23" t="s">
+      <c r="G21" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="H21" s="24">
+      <c r="H21" s="23">
         <v>44517</v>
       </c>
       <c r="I21" s="5"/>
@@ -1939,13 +1950,13 @@
       <c r="E22" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F22" s="22" t="s">
+      <c r="F22" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="G22" s="23" t="s">
+      <c r="G22" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="H22" s="24">
+      <c r="H22" s="23">
         <v>44517</v>
       </c>
       <c r="I22" s="5" t="s">
@@ -1964,9 +1975,15 @@
       <c r="E23" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F23" s="17"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="4"/>
+      <c r="F23" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="H23" s="23">
+        <v>44519</v>
+      </c>
       <c r="I23" s="5"/>
     </row>
     <row r="24" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
